--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EF821B-90A9-47B8-B989-9C49FD39823C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440E07A2-CB0F-42E7-9BE4-84FAA855E961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{60177F66-0738-455E-85D3-AFB6A9029ADD}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{60177F66-0738-455E-85D3-AFB6A9029ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nome</t>
   </si>
@@ -42,34 +42,10 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>carla</t>
-  </si>
-  <si>
-    <t>beatriz</t>
-  </si>
-  <si>
-    <t>lourdes</t>
-  </si>
-  <si>
     <t>rycks</t>
   </si>
   <si>
-    <t>5581993786628</t>
-  </si>
-  <si>
-    <t>5581995467967</t>
-  </si>
-  <si>
-    <t>5581984120133</t>
-  </si>
-  <si>
     <t>5511953652169</t>
-  </si>
-  <si>
-    <t>julio</t>
-  </si>
-  <si>
-    <t>5581984069178</t>
   </si>
 </sst>
 </file>
@@ -93,7 +69,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,8 +105,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5CB003-D707-4947-AE9F-AC35D58337E8}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,44 +444,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
